--- a/CHILE/01 Impactos y Proyecciones/Vida Humana/Aire/Tasa de Muerte por Aire Contaminado.xlsx
+++ b/CHILE/01 Impactos y Proyecciones/Vida Humana/Aire/Tasa de Muerte por Aire Contaminado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\01 Impactos y Proyecciones\Vida Humana\Aire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D83947-A9FC-4356-9E3D-D84120240E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0CCEA5-649E-44E7-9026-9145B9871B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9944E39F-FFF5-49E5-A505-932526E85E70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9944E39F-FFF5-49E5-A505-932526E85E70}"/>
   </bookViews>
   <sheets>
     <sheet name="Muerte Aire Contaminado Categor" sheetId="1" r:id="rId1"/>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD979E3-E781-4A8A-982C-8D397CC4FA74}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371C5DC6-8C36-40F0-92E9-FA56DB2DD45A}">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
